--- a/quest_dc_09_0000/quest_dc_10_0000/quest_dc_10_0010/quest_dc_10_0020/quest_dc_10_0030/quest_dc_10_0040/data/menkyo_ans.xlsx
+++ b/quest_dc_09_0000/quest_dc_10_0000/quest_dc_10_0010/quest_dc_10_0020/quest_dc_10_0030/quest_dc_10_0040/data/menkyo_ans.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiida/Documents/023_20210225_001_2021年関西科学塾/hp/opening_0000/opening_0010/opening_0020/opening_0030/quest_dc_01_0000/quest_dc_02_0000/quest_dc_02_0010/quest_dc_02_0020/quest_dc_02_0030/quest_dc_02_0040/quest_dc_02_0050/quest_dc_02_0060/quest_dc_03_0000/quest_dc_04_0000/quest_dc_04_0010/quest_dc_04_0020/quest_dc_04_0030/quest_dc_04_0040/quest_dc_04_0050/quest_dc_04_0060/quest_dc_05_0000/quest_dc_06_0000/quest_dc_06_0010/quest_dc_06_0020/quest_dc_06_0030/quest_dc_06_0040/quest_dc_06_0050/quest_dc_06_0060/quest_dc_06_0070/quest_dc_06_0080/quest_dc_06_0090/quest_dc_06_0100/quest_dc_07_0000/quest_dc_08_0000/quest_dc_08_0010/quest_dc_08_0020/quest_dc_08_0030/quest_dc_08_0040/quest_dc_09_0000/quest_dc_10_0000/quest_dc_10_0010/quest_dc_10_0020/quest_dc_10_0030/quest_dc_10_0040/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiida/Desktop/005_研究会等/20211024_001_2021年関西科学塾/ImmuneCellQuest/quest_dc_09_0000/quest_dc_10_0000/quest_dc_10_0010/quest_dc_10_0020/quest_dc_10_0030/quest_dc_10_0040/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D919082B-4A68-5F40-AFDC-231EB4BAC76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80578957-0832-4041-8B62-8B068A0C4C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,7 +172,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,12 +182,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -209,6 +203,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9BA1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -222,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -230,22 +236,30 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9BA1"/>
+      <color rgb="FFFF6F6F"/>
+      <color rgb="FFC0504D"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2605,13 +2619,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
@@ -2972,17 +2986,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -3014,13 +3028,13 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="12">
         <v>6</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="12">
         <v>26</v>
       </c>
       <c r="D3" s="2">
@@ -3038,18 +3052,18 @@
       <c r="H3" s="2">
         <v>0</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="12">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="12">
         <v>8</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="12">
         <v>30</v>
       </c>
       <c r="D4" s="2">
@@ -3067,18 +3081,18 @@
       <c r="H4" s="2">
         <v>1</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="12">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="12">
         <v>10</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="12">
         <v>29</v>
       </c>
       <c r="D5" s="2">
@@ -3096,18 +3110,18 @@
       <c r="H5" s="2">
         <v>0</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="12">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="12">
         <v>7</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="12">
         <v>26</v>
       </c>
       <c r="D6" s="2">
@@ -3125,18 +3139,18 @@
       <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="12">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="12">
         <v>9</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="12">
         <v>27</v>
       </c>
       <c r="D7" s="2">
@@ -3154,18 +3168,18 @@
       <c r="H7" s="2">
         <v>0</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="12">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="13">
         <v>11</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="13">
         <v>25</v>
       </c>
       <c r="D8">
@@ -3188,13 +3202,13 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="13">
         <v>9</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="13">
         <v>22</v>
       </c>
       <c r="D9">
@@ -3217,13 +3231,13 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="13">
         <v>9</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="13">
         <v>24</v>
       </c>
       <c r="D10">
@@ -3246,13 +3260,13 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="13">
         <v>12</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="13">
         <v>30</v>
       </c>
       <c r="D11">
@@ -3275,13 +3289,13 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="13">
         <v>10</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="13">
         <v>28</v>
       </c>
       <c r="D12">
@@ -3304,7 +3318,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B13">
@@ -3313,10 +3327,10 @@
       <c r="C13">
         <v>9</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>18</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>155</v>
       </c>
       <c r="F13">
@@ -3333,7 +3347,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B14">
@@ -3342,10 +3356,10 @@
       <c r="C14">
         <v>8</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>22</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>128</v>
       </c>
       <c r="F14">
@@ -3362,7 +3376,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B15">
@@ -3371,10 +3385,10 @@
       <c r="C15">
         <v>6</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>19</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>134</v>
       </c>
       <c r="F15">
@@ -3391,7 +3405,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B16">
@@ -3400,10 +3414,10 @@
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>24</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>143</v>
       </c>
       <c r="F16">
@@ -3420,7 +3434,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B17">
@@ -3429,10 +3443,10 @@
       <c r="C17">
         <v>5</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>20</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>160</v>
       </c>
       <c r="F17">
@@ -3594,7 +3608,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B23">
@@ -3615,7 +3629,7 @@
       <c r="G23">
         <v>2</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="5">
         <v>30</v>
       </c>
       <c r="I23">
@@ -3623,7 +3637,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B24">
@@ -3644,7 +3658,7 @@
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="5">
         <v>49</v>
       </c>
       <c r="I24">
@@ -3652,7 +3666,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B25">
@@ -3673,7 +3687,7 @@
       <c r="G25">
         <v>0</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="5">
         <v>62</v>
       </c>
       <c r="I25">
@@ -3681,7 +3695,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B26">
@@ -3702,7 +3716,7 @@
       <c r="G26">
         <v>1</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="5">
         <v>50</v>
       </c>
       <c r="I26">
@@ -3710,7 +3724,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B27">
@@ -3731,7 +3745,7 @@
       <c r="G27">
         <v>0</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="5">
         <v>70</v>
       </c>
       <c r="I27">
@@ -3952,17 +3966,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -3974,7 +3988,7 @@
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
@@ -3994,727 +4008,727 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>6</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>26</v>
       </c>
-      <c r="D3" s="10">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9">
-        <v>1</v>
-      </c>
-      <c r="H3" s="9">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9">
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>8</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>30</v>
       </c>
-      <c r="D4" s="10">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9">
-        <v>1</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <v>1</v>
-      </c>
-      <c r="I4" s="9">
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1</v>
+      </c>
+      <c r="I4" s="8">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>10</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>29</v>
       </c>
-      <c r="D5" s="10">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9">
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>7</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>26</v>
       </c>
-      <c r="D6" s="10">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9">
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>9</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>27</v>
       </c>
-      <c r="D7" s="10">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9">
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>11</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>25</v>
       </c>
-      <c r="D8" s="10">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
-        <v>1</v>
-      </c>
-      <c r="I8" s="9">
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>9</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>22</v>
       </c>
-      <c r="D9" s="10">
-        <v>1</v>
-      </c>
-      <c r="E9" s="9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9">
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>9</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>24</v>
       </c>
-      <c r="D10" s="10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9">
-        <v>1</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>12</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>30</v>
       </c>
-      <c r="D11" s="10">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9">
-        <v>1</v>
-      </c>
-      <c r="F11" s="9">
-        <v>1</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9">
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>10</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>28</v>
       </c>
-      <c r="D12" s="10">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9">
-        <v>1</v>
-      </c>
-      <c r="F12" s="9">
-        <v>1</v>
-      </c>
-      <c r="G12" s="9">
-        <v>1</v>
-      </c>
-      <c r="H12" s="9">
-        <v>1</v>
-      </c>
-      <c r="I12" s="9">
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1</v>
+      </c>
+      <c r="I12" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>2</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>9</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>18</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>155</v>
       </c>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9">
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
         <v>2</v>
       </c>
-      <c r="H13" s="9">
-        <v>0</v>
-      </c>
-      <c r="I13" s="9">
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="9">
-        <v>1</v>
-      </c>
-      <c r="C14" s="8">
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7">
         <v>8</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>22</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>128</v>
       </c>
-      <c r="F14" s="9">
-        <v>1</v>
-      </c>
-      <c r="G14" s="9">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9">
-        <v>1</v>
-      </c>
-      <c r="I14" s="9">
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1</v>
+      </c>
+      <c r="I14" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="9">
-        <v>1</v>
-      </c>
-      <c r="C15" s="8">
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7">
         <v>6</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>19</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>134</v>
       </c>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9">
-        <v>0</v>
-      </c>
-      <c r="H15" s="9">
-        <v>0</v>
-      </c>
-      <c r="I15" s="9">
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="9">
-        <v>0</v>
-      </c>
-      <c r="C16" s="8">
+      <c r="B16" s="8">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7">
         <v>2</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>24</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>143</v>
       </c>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0</v>
-      </c>
-      <c r="I16" s="9">
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0</v>
+      </c>
+      <c r="I16" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>2</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>5</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>20</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>160</v>
       </c>
-      <c r="F17" s="9">
-        <v>1</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0</v>
-      </c>
-      <c r="H17" s="9">
-        <v>1</v>
-      </c>
-      <c r="I17" s="9">
+      <c r="F17" s="8">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8">
+        <v>1</v>
+      </c>
+      <c r="I17" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>3</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>13</v>
       </c>
-      <c r="D18" s="10">
-        <v>1</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="D18" s="9">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
         <v>2</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>20</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <v>171</v>
       </c>
-      <c r="H18" s="9">
-        <v>0</v>
-      </c>
-      <c r="I18" s="9">
+      <c r="H18" s="8">
+        <v>0</v>
+      </c>
+      <c r="I18" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>2</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>14</v>
       </c>
-      <c r="D19" s="10">
-        <v>0</v>
-      </c>
-      <c r="E19" s="9">
-        <v>0</v>
-      </c>
-      <c r="F19" s="9">
+      <c r="D19" s="9">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8">
         <v>18</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <v>152</v>
       </c>
-      <c r="H19" s="9">
-        <v>0</v>
-      </c>
-      <c r="I19" s="9">
+      <c r="H19" s="8">
+        <v>0</v>
+      </c>
+      <c r="I19" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="9">
-        <v>0</v>
-      </c>
-      <c r="C20" s="8">
+      <c r="B20" s="8">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7">
         <v>11</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>2</v>
       </c>
-      <c r="E20" s="9">
-        <v>1</v>
-      </c>
-      <c r="F20" s="9">
+      <c r="E20" s="8">
+        <v>1</v>
+      </c>
+      <c r="F20" s="8">
         <v>28</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="8">
         <v>175</v>
       </c>
-      <c r="H20" s="9">
-        <v>1</v>
-      </c>
-      <c r="I20" s="9">
+      <c r="H20" s="8">
+        <v>1</v>
+      </c>
+      <c r="I20" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="9">
-        <v>1</v>
-      </c>
-      <c r="C21" s="8">
+      <c r="B21" s="8">
+        <v>1</v>
+      </c>
+      <c r="C21" s="7">
         <v>10</v>
       </c>
-      <c r="D21" s="10">
-        <v>0</v>
-      </c>
-      <c r="E21" s="9">
-        <v>0</v>
-      </c>
-      <c r="F21" s="9">
+      <c r="D21" s="9">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
         <v>25</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="8">
         <v>160</v>
       </c>
-      <c r="H21" s="9">
-        <v>0</v>
-      </c>
-      <c r="I21" s="9">
+      <c r="H21" s="8">
+        <v>0</v>
+      </c>
+      <c r="I21" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="9">
-        <v>0</v>
-      </c>
-      <c r="C22" s="8">
+      <c r="B22" s="8">
+        <v>0</v>
+      </c>
+      <c r="C22" s="7">
         <v>12</v>
       </c>
-      <c r="D22" s="10">
-        <v>0</v>
-      </c>
-      <c r="E22" s="9">
-        <v>0</v>
-      </c>
-      <c r="F22" s="9">
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0</v>
+      </c>
+      <c r="F22" s="8">
         <v>20</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="8">
         <v>150</v>
       </c>
-      <c r="H22" s="9">
-        <v>0</v>
-      </c>
-      <c r="I22" s="9">
+      <c r="H22" s="8">
+        <v>0</v>
+      </c>
+      <c r="I22" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>2</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <v>7</v>
       </c>
-      <c r="D23" s="10">
-        <v>0</v>
-      </c>
-      <c r="E23" s="9">
-        <v>1</v>
-      </c>
-      <c r="F23" s="9">
-        <v>0</v>
-      </c>
-      <c r="G23" s="9">
+      <c r="D23" s="9">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
         <v>2</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="8">
         <v>30</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="9">
-        <v>1</v>
-      </c>
-      <c r="C24" s="8">
+      <c r="B24" s="8">
+        <v>1</v>
+      </c>
+      <c r="C24" s="7">
         <v>4</v>
       </c>
-      <c r="D24" s="10">
-        <v>1</v>
-      </c>
-      <c r="E24" s="9">
-        <v>0</v>
-      </c>
-      <c r="F24" s="9">
-        <v>1</v>
-      </c>
-      <c r="G24" s="9">
-        <v>0</v>
-      </c>
-      <c r="H24" s="9">
+      <c r="D24" s="9">
+        <v>1</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
+        <v>1</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0</v>
+      </c>
+      <c r="H24" s="8">
         <v>49</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="9">
-        <v>0</v>
-      </c>
-      <c r="C25" s="8">
+      <c r="B25" s="8">
+        <v>0</v>
+      </c>
+      <c r="C25" s="7">
         <v>5</v>
       </c>
-      <c r="D25" s="10">
-        <v>1</v>
-      </c>
-      <c r="E25" s="9">
-        <v>1</v>
-      </c>
-      <c r="F25" s="9">
-        <v>0</v>
-      </c>
-      <c r="G25" s="9">
-        <v>0</v>
-      </c>
-      <c r="H25" s="9">
+      <c r="D25" s="9">
+        <v>1</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0</v>
+      </c>
+      <c r="H25" s="8">
         <v>62</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="9">
-        <v>1</v>
-      </c>
-      <c r="C26" s="8">
+      <c r="B26" s="8">
+        <v>1</v>
+      </c>
+      <c r="C26" s="7">
         <v>6</v>
       </c>
-      <c r="D26" s="10">
-        <v>1</v>
-      </c>
-      <c r="E26" s="9">
-        <v>0</v>
-      </c>
-      <c r="F26" s="9">
-        <v>1</v>
-      </c>
-      <c r="G26" s="9">
-        <v>1</v>
-      </c>
-      <c r="H26" s="9">
+      <c r="D26" s="9">
+        <v>1</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0</v>
+      </c>
+      <c r="F26" s="8">
+        <v>1</v>
+      </c>
+      <c r="G26" s="8">
+        <v>1</v>
+      </c>
+      <c r="H26" s="8">
         <v>50</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="8">
         <v>3</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <v>3</v>
       </c>
-      <c r="D27" s="10">
-        <v>0</v>
-      </c>
-      <c r="E27" s="9">
-        <v>0</v>
-      </c>
-      <c r="F27" s="9">
-        <v>0</v>
-      </c>
-      <c r="G27" s="9">
-        <v>0</v>
-      </c>
-      <c r="H27" s="9">
+      <c r="D27" s="9">
+        <v>0</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0</v>
+      </c>
+      <c r="H27" s="8">
         <v>70</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="8">
         <v>0</v>
       </c>
     </row>
